--- a/C语言课程讲义_笔记/B站鹏哥/2024_9_18 P105 C语言进阶 函数指针.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_9_18 P105 C语言进阶 函数指针.xlsx
@@ -13,6 +13,15 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>因为不清楚数据类型，所以用void泛型来接受</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -218,6 +227,310 @@
         <a:xfrm>
           <a:off x="1038225" y="9286875"/>
           <a:ext cx="13171428" cy="6047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>303418</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>56754</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="15916275"/>
+          <a:ext cx="11057143" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542051</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="20288250"/>
+          <a:ext cx="6990476" cy="3304762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409151</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>28485</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="19535775"/>
+          <a:ext cx="3390476" cy="723810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179417</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>28218</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="24260175"/>
+          <a:ext cx="12466667" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>617640</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>94863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="27517725"/>
+          <a:ext cx="11876190" cy="3095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>427552</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>161537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="30660975"/>
+          <a:ext cx="8580952" cy="3104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608750</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>171149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="35137725"/>
+          <a:ext cx="6800000" cy="2409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>93965</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>113811</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="37861875"/>
+          <a:ext cx="10276190" cy="3914286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,14 +829,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="S229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="AB50" sqref="AB50"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="X207" sqref="X207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="229" spans="19:19" x14ac:dyDescent="0.15">
+      <c r="S229" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
